--- a/cic_2021_workshop/qi_spreadsheet_workshop.xlsx
+++ b/cic_2021_workshop/qi_spreadsheet_workshop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a6b9afb2ee4a130/Documents/All_of_Maras_R/MaraAlexeev_public_presentations/cic_2021_workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{6780490D-752C-4412-AE22-DCC59F53B6D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C98715FA-CB79-476A-A794-E5CB864AE92F}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{6780490D-752C-4412-AE22-DCC59F53B6D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E40A6C6D-AEEE-4BC8-8F38-99C8667BFA0F}"/>
   <bookViews>
-    <workbookView xWindow="42090" yWindow="850" windowWidth="19200" windowHeight="10160" activeTab="2" xr2:uid="{D18A9D19-094D-44C4-9533-628C89AA207D}"/>
+    <workbookView xWindow="42090" yWindow="850" windowWidth="19200" windowHeight="10160" firstSheet="3" activeTab="3" xr2:uid="{D18A9D19-094D-44C4-9533-628C89AA207D}"/>
   </bookViews>
   <sheets>
     <sheet name="fmea" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="scatter" sheetId="4" r:id="rId4"/>
     <sheet name="runchart" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
   <si>
     <t>Steps in Process</t>
   </si>
@@ -133,6 +133,9 @@
     <t>Wrong Size</t>
   </si>
   <si>
+    <t>Wrong Sterile Instrument Set</t>
+  </si>
+  <si>
     <t>Missing Item</t>
   </si>
   <si>
@@ -142,13 +145,25 @@
     <t>Other</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>Wrong Sterile Instrument Set</t>
+    <t>resident</t>
+  </si>
+  <si>
+    <t>Pediatrics</t>
+  </si>
+  <si>
+    <t>Internal Medicine</t>
+  </si>
+  <si>
+    <t>General Surgery</t>
+  </si>
+  <si>
+    <t>factor_service</t>
   </si>
 </sst>
 </file>
@@ -510,17 +525,17 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -806,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113E9347-C431-4DB3-9014-0CAB1E7465F4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,7 +911,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -912,7 +927,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -928,7 +943,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -944,7 +959,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -966,380 +981,1229 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72074C8-A75E-4453-A425-892E26B9BA50}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,120)/A2 + 3.5</f>
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <f ca="1">(RANDBETWEEN(1,120)/A2 + 3.5)*D2</f>
+        <v>6.8750000000000009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B41" ca="1" si="0">RANDBETWEEN(1,120)/A3 + 3.5</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <f t="shared" ref="B3:B66" ca="1" si="0">(RANDBETWEEN(1,120)/A3 + 3.5)*D3</f>
+        <v>6.0500000000000007</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>32.166666666666671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20.991666666666667</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9.4875000000000007</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.1166666666666667</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6428571428571423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8.2107142857142872</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.9875000000000003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.833333333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.5138888888888893</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.9050000000000002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33.825000000000003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30.525000000000002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1666666666666661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12.558333333333334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8.745000000000001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>20.166666666666668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.3166666666666673</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6428571428571423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6.1678571428571436</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.0875000000000004</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>12.833333333333334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.880555555555556</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6.8750000000000009</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50.875000000000007</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2.75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18.975000000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11.825000000000001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12.595000000000001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3333333333333321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9.9916666666666654</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6428571428571428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11.117857142857144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>13.625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6.1875000000000009</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6111111111111112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7.1194444444444454</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2.3100000000000005</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9.0750000000000011</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>27.166666666666668</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6.3250000000000002</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>14.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16.5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13.112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>5.166666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12.906666666666666</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>7</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>12.785714285714286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.8342857142857141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9.6311111111111121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
+        <v>11.176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>97.24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.575999999999999</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4266666666666659</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8571428571428577</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2311111111111117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2159999999999993</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>101.64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.04</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.352</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.253333333333333</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3288888888888888</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.92</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>92.84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>40.04</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5466666666666669</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.580000000000002</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0720000000000001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B81" ca="1" si="1">(RANDBETWEEN(1,120)/A67 + 3.5)*D67</f>
+        <v>7.3333333333333321</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8464285714285713</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.2874999999999996</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.9116666666666671</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4909999999999997</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.204999999999998</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.094999999999999</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.9716666666666667</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9974999999999998</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.9429999999999987</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.104999999999999</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.9492857142857138</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.05</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0549999999999997</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.948</v>
+      </c>
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
